--- a/doc/Tumbler_Conn_ESP.xlsx
+++ b/doc/Tumbler_Conn_ESP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scu2425\Kuran\Tumbler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5A594-3B16-41B1-9AF0-A49D94CE9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2FFE44-F2C6-4743-8014-309FAF602B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="1035" windowWidth="17805" windowHeight="15615" xr2:uid="{F7D7440D-AEF5-4907-BD48-B659A297FCED}"/>
+    <workbookView xWindow="420" yWindow="720" windowWidth="12780" windowHeight="13770" xr2:uid="{F7D7440D-AEF5-4907-BD48-B659A297FCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>EN</t>
   </si>
@@ -153,6 +153,45 @@
   </si>
   <si>
     <t>MPU</t>
+  </si>
+  <si>
+    <t>Tumbler 1.0</t>
+  </si>
+  <si>
+    <t>Tumbler 2.0</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>LS2</t>
+  </si>
+  <si>
+    <t>LS3</t>
+  </si>
+  <si>
+    <t>LS4</t>
+  </si>
+  <si>
+    <t>LS5</t>
+  </si>
+  <si>
+    <t>LS6</t>
+  </si>
+  <si>
+    <t>AIN2</t>
+  </si>
+  <si>
+    <t>BIN2</t>
+  </si>
+  <si>
+    <t>LSC1</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>LSC2</t>
   </si>
 </sst>
 </file>
@@ -192,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -200,14 +239,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -542,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404567D9-6DA6-4E48-B8D2-4EA93FEA4588}">
-  <dimension ref="C8:G22"/>
+  <dimension ref="C7:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,179 +687,398 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="1" t="s">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C25:E25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>